--- a/biology/Botanique/Sterculia_tragacantha/Sterculia_tragacantha.xlsx
+++ b/biology/Botanique/Sterculia_tragacantha/Sterculia_tragacantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sterculia tragacantha est une espèce de plante de la famille des Sterculiaceae. Elle st largement répandue en Afrique Tropicale Occidentale entre la Guinée, le Soudan, l'Oubangui-Chari et jusqu'en Angola. C'est un arbre qui aime la lumière et qui se rencontre dans la végétation dégradée secondaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia tragacantha est une espèce de plante de la famille des Sterculiaceae. Elle st largement répandue en Afrique Tropicale Occidentale entre la Guinée, le Soudan, l'Oubangui-Chari et jusqu'en Angola. C'est un arbre qui aime la lumière et qui se rencontre dans la végétation dégradée secondaire.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sterculia tragacantha est un arbre persistant qui pousse jusqu'à 35 m de haut. Ses feuilles sont obovales , de 190 mm de long et de 50- 120 mm de large. Les fleurs sont unisexuées et disposent d’une calice campanulé à 5 lobes triangulaires de couleurs rouges ou roses. Les fruits sont des follicules oblongs ovoides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia tragacantha est un arbre persistant qui pousse jusqu'à 35 m de haut. Ses feuilles sont obovales , de 190 mm de long et de 50- 120 mm de large. Les fleurs sont unisexuées et disposent d’une calice campanulé à 5 lobes triangulaires de couleurs rouges ou roses. Les fruits sont des follicules oblongs ovoides.
 </t>
         </is>
       </c>
@@ -542,40 +556,12 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sterculia tragacantha est une espèce a usage multiple[3]. D’abord pour l’alimentation générale (gum, fruits, jeune feuilles). L'écorce, très fibreuse surtout celle des jeunes rameaux peut servir à faire des liens. Il est également très utilisé en médecine. Les jeunes pousses des feuilles et/ou l’écores sont utilisés comme décoction contre les vermifuges dans différents pays notamment la Guinée[1]. La gomme a également plusieurs usages thérapeutiques. Entre autres, on peut citer : troubles de l’estomac, maux de têtes, etc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia tragacantha est une espèce a usage multiple. D’abord pour l’alimentation générale (gum, fruits, jeune feuilles). L'écorce, très fibreuse surtout celle des jeunes rameaux peut servir à faire des liens. Il est également très utilisé en médecine. Les jeunes pousses des feuilles et/ou l’écores sont utilisés comme décoction contre les vermifuges dans différents pays notamment la Guinée. La gomme a également plusieurs usages thérapeutiques. Entre autres, on peut citer : troubles de l’estomac, maux de têtes, etc.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sterculia_tragacantha</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sterculia_tragacantha</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ravageurs et maladies</t>
         </is>
       </c>
     </row>
